--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H2">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J2">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N2">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O2">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P2">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q2">
-        <v>33.02049930688489</v>
+        <v>197.375164490576</v>
       </c>
       <c r="R2">
-        <v>297.184493761964</v>
+        <v>1776.376480415184</v>
       </c>
       <c r="S2">
-        <v>0.0004829703473541115</v>
+        <v>0.001817109448463831</v>
       </c>
       <c r="T2">
-        <v>0.0004829703473541116</v>
+        <v>0.001817109448463831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H3">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J3">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N3">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q3">
-        <v>6495.062356277128</v>
+        <v>19828.3697266734</v>
       </c>
       <c r="R3">
-        <v>58455.56120649415</v>
+        <v>178455.3275400606</v>
       </c>
       <c r="S3">
-        <v>0.09499924556391307</v>
+        <v>0.1825473740374907</v>
       </c>
       <c r="T3">
-        <v>0.09499924556391307</v>
+        <v>0.1825473740374907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H4">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J4">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N4">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q4">
-        <v>33286.24547722244</v>
+        <v>56422.79061597925</v>
       </c>
       <c r="R4">
-        <v>299576.2092950019</v>
+        <v>507805.1155438133</v>
       </c>
       <c r="S4">
-        <v>0.486857251637512</v>
+        <v>0.5194492741861024</v>
       </c>
       <c r="T4">
-        <v>0.486857251637512</v>
+        <v>0.5194492741861024</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>129.2697763333333</v>
+        <v>212.9195706666667</v>
       </c>
       <c r="H5">
-        <v>387.809329</v>
+        <v>638.7587120000001</v>
       </c>
       <c r="I5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749344</v>
       </c>
       <c r="J5">
-        <v>0.6106530555301429</v>
+        <v>0.7081219821749345</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N5">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q5">
-        <v>1935.789262086027</v>
+        <v>467.9610909715102</v>
       </c>
       <c r="R5">
-        <v>17422.10335877425</v>
+        <v>4211.649818743592</v>
       </c>
       <c r="S5">
-        <v>0.0283135879813638</v>
+        <v>0.004308224502877485</v>
       </c>
       <c r="T5">
-        <v>0.02831358798136381</v>
+        <v>0.004308224502877486</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>216.067345</v>
       </c>
       <c r="I6">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J6">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N6">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O6">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P6">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q6">
-        <v>18.39731817233555</v>
+        <v>66.76437747031</v>
       </c>
       <c r="R6">
-        <v>165.57586355102</v>
+        <v>600.87939723279</v>
       </c>
       <c r="S6">
-        <v>0.0002690861535889732</v>
+        <v>0.0006146577834917955</v>
       </c>
       <c r="T6">
-        <v>0.0002690861535889733</v>
+        <v>0.0006146577834917956</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>216.067345</v>
       </c>
       <c r="I7">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J7">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N7">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q7">
-        <v>3618.713563567325</v>
+        <v>6707.169893787212</v>
       </c>
       <c r="R7">
-        <v>32568.42207210592</v>
+        <v>60364.52904408491</v>
       </c>
       <c r="S7">
-        <v>0.05292867713865058</v>
+        <v>0.06174870996515275</v>
       </c>
       <c r="T7">
-        <v>0.05292867713865058</v>
+        <v>0.06174870996515276</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.067345</v>
       </c>
       <c r="I8">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J8">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N8">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q8">
-        <v>18545.37822446687</v>
+        <v>19085.64585790816</v>
       </c>
       <c r="R8">
-        <v>166908.4040202019</v>
+        <v>171770.8127211734</v>
       </c>
       <c r="S8">
-        <v>0.2712517360697996</v>
+        <v>0.1757095808277103</v>
       </c>
       <c r="T8">
-        <v>0.2712517360697997</v>
+        <v>0.1757095808277104</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.067345</v>
       </c>
       <c r="I9">
-        <v>0.3402243694466038</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="J9">
-        <v>0.3402243694466039</v>
+        <v>0.2395302541481037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N9">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q9">
-        <v>1078.521879339414</v>
+        <v>158.2931216279327</v>
       </c>
       <c r="R9">
-        <v>9706.696914054724</v>
+        <v>1424.638094651395</v>
       </c>
       <c r="S9">
-        <v>0.01577487008456464</v>
+        <v>0.001457305571748793</v>
       </c>
       <c r="T9">
-        <v>0.01577487008456464</v>
+        <v>0.001457305571748793</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H10">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I10">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J10">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N10">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O10">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P10">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q10">
-        <v>0.05778950733822222</v>
+        <v>0.47370165895</v>
       </c>
       <c r="R10">
-        <v>0.520105566044</v>
+        <v>4.26331493055</v>
       </c>
       <c r="S10">
-        <v>8.45251253567347E-07</v>
+        <v>4.361074314758253E-06</v>
       </c>
       <c r="T10">
-        <v>8.452512535673471E-07</v>
+        <v>4.361074314758253E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H11">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I11">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J11">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N11">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q11">
-        <v>11.36707383531378</v>
+        <v>47.58821434318612</v>
       </c>
       <c r="R11">
-        <v>102.303664517824</v>
+        <v>428.293929088675</v>
       </c>
       <c r="S11">
-        <v>0.0001662591333831422</v>
+        <v>0.0004381148668917475</v>
       </c>
       <c r="T11">
-        <v>0.0001662591333831422</v>
+        <v>0.0004381148668917476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H12">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I12">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J12">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N12">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q12">
-        <v>58.25459237882378</v>
+        <v>135.4150588619472</v>
       </c>
       <c r="R12">
-        <v>524.2913314094141</v>
+        <v>1218.735529757525</v>
       </c>
       <c r="S12">
-        <v>0.0008520537637753528</v>
+        <v>0.001246681585078952</v>
       </c>
       <c r="T12">
-        <v>0.0008520537637753528</v>
+        <v>0.001246681585078952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2262363333333333</v>
+        <v>0.5110083333333334</v>
       </c>
       <c r="H13">
-        <v>0.678709</v>
+        <v>1.533025</v>
       </c>
       <c r="I13">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="J13">
-        <v>0.001068710042985603</v>
+        <v>0.001699497292686207</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N13">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q13">
-        <v>3.387844221460556</v>
+        <v>1.123109615586111</v>
       </c>
       <c r="R13">
-        <v>30.490597993145</v>
+        <v>10.107986540275</v>
       </c>
       <c r="S13">
-        <v>4.95518945735404E-05</v>
+        <v>1.03397664007497E-05</v>
       </c>
       <c r="T13">
-        <v>4.955189457354041E-05</v>
+        <v>1.03397664007497E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H14">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I14">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J14">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N14">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O14">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P14">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q14">
-        <v>2.135315863350222</v>
+        <v>12.017929974542</v>
       </c>
       <c r="R14">
-        <v>19.217842770152</v>
+        <v>108.161369770878</v>
       </c>
       <c r="S14">
-        <v>3.123193973078332E-05</v>
+        <v>0.0001106415498833423</v>
       </c>
       <c r="T14">
-        <v>3.123193973078333E-05</v>
+        <v>0.0001106415498833423</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H15">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I15">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J15">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N15">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q15">
-        <v>420.0121128972658</v>
+        <v>1207.324941309256</v>
       </c>
       <c r="R15">
-        <v>3780.109016075392</v>
+        <v>10865.9244717833</v>
       </c>
       <c r="S15">
-        <v>0.006143256471492275</v>
+        <v>0.01111508412865104</v>
       </c>
       <c r="T15">
-        <v>0.006143256471492275</v>
+        <v>0.01111508412865104</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H16">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I16">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J16">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N16">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q16">
-        <v>2152.500703829846</v>
+        <v>3435.514029038139</v>
       </c>
       <c r="R16">
-        <v>19372.50633446861</v>
+        <v>30919.62626134324</v>
       </c>
       <c r="S16">
-        <v>0.03148329172575266</v>
+        <v>0.03162862469859177</v>
       </c>
       <c r="T16">
-        <v>0.03148329172575266</v>
+        <v>0.03162862469859177</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.359407333333333</v>
+        <v>12.96440966666667</v>
       </c>
       <c r="H17">
-        <v>25.078222</v>
+        <v>38.893229</v>
       </c>
       <c r="I17">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572963</v>
       </c>
       <c r="J17">
-        <v>0.03948871712563483</v>
+        <v>0.04311667284572964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N17">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q17">
-        <v>125.1804668675455</v>
+        <v>28.49357281915989</v>
       </c>
       <c r="R17">
-        <v>1126.62420180791</v>
+        <v>256.4421553724389</v>
       </c>
       <c r="S17">
-        <v>0.001830936988659118</v>
+        <v>0.0002623224686034891</v>
       </c>
       <c r="T17">
-        <v>0.001830936988659119</v>
+        <v>0.0002623224686034891</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H18">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I18">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J18">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N18">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O18">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P18">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q18">
-        <v>0.3398958005124444</v>
+        <v>1.736753540804</v>
       </c>
       <c r="R18">
-        <v>3.059062204612</v>
+        <v>15.630781867236</v>
       </c>
       <c r="S18">
-        <v>4.971444898880473E-06</v>
+        <v>1.598920146206461E-05</v>
       </c>
       <c r="T18">
-        <v>4.971444898880475E-06</v>
+        <v>1.598920146206462E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H19">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I19">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J19">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N19">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P19">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q19">
-        <v>66.85678488528357</v>
+        <v>174.4747948408429</v>
       </c>
       <c r="R19">
-        <v>601.7110639675521</v>
+        <v>1570.273153567586</v>
       </c>
       <c r="S19">
-        <v>0.0009778726941385763</v>
+        <v>0.001606280096294596</v>
       </c>
       <c r="T19">
-        <v>0.0009778726941385763</v>
+        <v>0.001606280096294596</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H20">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I20">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J20">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N20">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P20">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q20">
-        <v>342.6312530100136</v>
+        <v>496.4782759637598</v>
       </c>
       <c r="R20">
-        <v>3083.681277090122</v>
+        <v>4468.304483673837</v>
       </c>
       <c r="S20">
-        <v>0.005011454664651828</v>
+        <v>0.004570764353961341</v>
       </c>
       <c r="T20">
-        <v>0.005011454664651829</v>
+        <v>0.004570764353961342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.330635666666667</v>
+        <v>1.873532666666667</v>
       </c>
       <c r="H21">
-        <v>3.991907</v>
+        <v>5.620598</v>
       </c>
       <c r="I21">
-        <v>0.006285744113551653</v>
+        <v>0.00623094279889598</v>
       </c>
       <c r="J21">
-        <v>0.006285744113551654</v>
+        <v>0.006230942798895981</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N21">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P21">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q21">
-        <v>19.92600519892611</v>
+        <v>4.117706925290888</v>
       </c>
       <c r="R21">
-        <v>179.334046790335</v>
+        <v>37.059362327618</v>
       </c>
       <c r="S21">
-        <v>0.000291445309862368</v>
+        <v>3.790914717797881E-05</v>
       </c>
       <c r="T21">
-        <v>0.0002914453098623681</v>
+        <v>3.790914717797881E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H22">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I22">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J22">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N22">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O22">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P22">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q22">
-        <v>0.1232566495342222</v>
+        <v>0.362530976506</v>
       </c>
       <c r="R22">
-        <v>1.109309845808</v>
+        <v>3.262778788554</v>
       </c>
       <c r="S22">
-        <v>1.802798506648723E-06</v>
+        <v>3.337595509901779E-06</v>
       </c>
       <c r="T22">
-        <v>1.802798506648724E-06</v>
+        <v>3.33759550990178E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H23">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I23">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J23">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N23">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P23">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q23">
-        <v>24.24432220452977</v>
+        <v>36.41997339475878</v>
       </c>
       <c r="R23">
-        <v>218.198899840768</v>
+        <v>327.779760552829</v>
       </c>
       <c r="S23">
-        <v>0.0003546066522999341</v>
+        <v>0.0003352958713890133</v>
       </c>
       <c r="T23">
-        <v>0.0003546066522999341</v>
+        <v>0.0003352958713890133</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H24">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I24">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J24">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N24">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P24">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q24">
-        <v>124.2486085678497</v>
+        <v>103.6351733106785</v>
       </c>
       <c r="R24">
-        <v>1118.237477110648</v>
+        <v>932.7165597961068</v>
       </c>
       <c r="S24">
-        <v>0.001817307275719101</v>
+        <v>0.0009541040946162813</v>
       </c>
       <c r="T24">
-        <v>0.001817307275719101</v>
+        <v>0.0009541040946162814</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4825293333333332</v>
+        <v>0.3910823333333333</v>
       </c>
       <c r="H25">
-        <v>1.447588</v>
+        <v>1.173247</v>
       </c>
       <c r="I25">
-        <v>0.002279403741081144</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="J25">
-        <v>0.002279403741081145</v>
+        <v>0.001300650739650178</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N25">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P25">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q25">
-        <v>7.225781065015553</v>
+        <v>0.8595326150307776</v>
       </c>
       <c r="R25">
-        <v>65.03202958513998</v>
+        <v>7.735793535276999</v>
       </c>
       <c r="S25">
-        <v>0.0001056870145554607</v>
+        <v>7.913178134981741E-06</v>
       </c>
       <c r="T25">
-        <v>0.0001056870145554607</v>
+        <v>7.913178134981743E-06</v>
       </c>
     </row>
   </sheetData>
